--- a/medicine/Sexualité et sexologie/Abasiophilie/Abasiophilie.xlsx
+++ b/medicine/Sexualité et sexologie/Abasiophilie/Abasiophilie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'abasiophilie est une attirance psychosexuelle envers les individus d'une mobilité restreinte, spécialement ceux utilisant des matériels orthopédiques tels que orthèses, plâtres ou fauteuils roulants[1]. Le terme abasiophilie est utilisé pour la première fois par John Money de l'université Johns-Hopkins dans une étude sur les paraphilies en 1990[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abasiophilie est une attirance psychosexuelle envers les individus d'une mobilité restreinte, spécialement ceux utilisant des matériels orthopédiques tels que orthèses, plâtres ou fauteuils roulants. Le terme abasiophilie est utilisé pour la première fois par John Money de l'université Johns-Hopkins dans une étude sur les paraphilies en 1990,.
 </t>
         </is>
       </c>
